--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сливки Panna Fresca "Unagrande", 38%, 0,5 л, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сливки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сливки "Красная птица", 38%, 0,25 л, пл/с</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,12 +194,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,7 +262,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +286,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,7 +385,7 @@
         <v>0.25</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>21</v>
@@ -397,7 +403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -420,7 +426,7 @@
         <v>0.25</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>21</v>
@@ -438,7 +444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -461,7 +467,7 @@
         <v>0.5</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>21</v>
@@ -479,7 +485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -505,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>21</v>
@@ -523,7 +529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -549,7 +555,7 @@
         <v>0.2</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>21</v>
@@ -567,7 +573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
@@ -593,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>21</v>
@@ -611,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
@@ -634,7 +640,7 @@
         <v>0.25</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>21</v>
@@ -652,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
@@ -675,7 +681,7 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>21</v>
@@ -693,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
@@ -719,7 +725,7 @@
         <v>0.2</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>21</v>
@@ -734,6 +740,88 @@
         <v>24</v>
       </c>
       <c r="S10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="0" t="s">
         <v>25</v>
       </c>
     </row>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[20, 10]</t>
+    <t xml:space="preserve">[10, 5]</t>
   </si>
   <si>
     <t xml:space="preserve">[15, 10]</t>
@@ -286,7 +286,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,6 +384,9 @@
       <c r="H2" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I2" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N2" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -403,7 +406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -425,6 +428,9 @@
       <c r="H3" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N3" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -444,7 +450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -466,6 +472,9 @@
       <c r="H4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N4" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -485,7 +494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -529,7 +538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -554,6 +563,9 @@
       <c r="H6" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N6" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -573,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
@@ -617,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
@@ -639,6 +651,9 @@
       <c r="H8" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N8" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -658,7 +673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
@@ -680,6 +695,9 @@
       <c r="H9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N9" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -699,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
@@ -724,6 +742,9 @@
       <c r="H10" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N10" s="0" t="n">
         <v>12.5</v>
       </c>
@@ -743,7 +764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -765,11 +786,14 @@
       <c r="H11" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>23</v>
@@ -784,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -806,11 +830,14 @@
       <c r="H12" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>23</v>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -286,7 +286,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -49,31 +49,31 @@
     <t xml:space="preserve">Вес форм фактора</t>
   </si>
   <si>
+    <t xml:space="preserve">Срок хранения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Упаковщик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скорость упаковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прием</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нагрев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Молочная кислота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сепарирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес</t>
+  </si>
+  <si>
     <t xml:space="preserve">Выход</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срок хранения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Упаковщик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скорость упаковки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прием</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагрев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молочная кислота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сепарирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вес</t>
   </si>
   <si>
     <t xml:space="preserve">Маскарпоне "Unagrande", 80%, 0,25 кг, пл/с</t>
@@ -283,10 +283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,10 +296,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="15" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,7 +360,6 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -387,20 +386,23 @@
       <c r="I2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>25</v>
@@ -431,20 +433,23 @@
       <c r="I3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N3" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>25</v>
@@ -475,20 +480,23 @@
       <c r="I4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N4" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>25</v>
@@ -519,20 +527,23 @@
       <c r="I5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N5" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>25</v>
@@ -566,20 +577,23 @@
       <c r="I6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N6" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>25</v>
@@ -610,20 +624,23 @@
       <c r="I7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N7" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>25</v>
@@ -654,20 +671,23 @@
       <c r="I8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N8" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>25</v>
@@ -698,20 +718,23 @@
       <c r="I9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N9" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>25</v>
@@ -745,20 +768,23 @@
       <c r="I10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>12.5</v>
       </c>
+      <c r="N10" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>25</v>
@@ -789,20 +815,23 @@
       <c r="I11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="N11" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>25</v>
@@ -833,36 +862,28 @@
       <c r="I12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="N12" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">[500, 300]</t>
   </si>
   <si>
+    <t xml:space="preserve">[255, 225]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Pretto", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">[0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250, 250]</t>
   </si>
   <si>
     <t xml:space="preserve">Сливки "Красная птица", 38%, 0,25 л, пл/с</t>
@@ -286,7 +292,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +411,7 @@
         <v>25</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
@@ -425,7 +431,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.25</v>
@@ -452,7 +458,7 @@
         <v>25</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
@@ -472,7 +478,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.5</v>
@@ -499,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
@@ -519,7 +525,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.25</v>
@@ -546,7 +552,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>19</v>
@@ -569,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.2</v>
@@ -596,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
@@ -616,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.25</v>
@@ -643,7 +649,7 @@
         <v>25</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
@@ -663,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.25</v>
@@ -690,7 +696,7 @@
         <v>25</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
@@ -710,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.5</v>
@@ -737,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,13 +751,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>19</v>
@@ -760,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
@@ -787,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,19 +801,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
@@ -825,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>24</v>
@@ -834,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,19 +848,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.25</v>
@@ -872,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>24</v>
@@ -881,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Выход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
     <t xml:space="preserve">Маскарпоне "Unagrande", 80%, 0,25 кг, пл/с</t>
@@ -292,7 +295,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +366,9 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
@@ -372,19 +377,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.25</v>
@@ -396,22 +401,25 @@
         <v>12.5</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,19 +427,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.25</v>
@@ -443,22 +451,25 @@
         <v>12.5</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,19 +477,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.5</v>
@@ -490,22 +501,25 @@
         <v>12.5</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.25</v>
@@ -537,22 +551,25 @@
         <v>12.5</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,22 +577,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.2</v>
@@ -587,22 +604,25 @@
         <v>12.5</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,19 +630,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.25</v>
@@ -634,22 +654,25 @@
         <v>12.5</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.25</v>
@@ -681,22 +704,25 @@
         <v>12.5</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.5</v>
@@ -728,22 +754,25 @@
         <v>12.5</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,22 +780,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
@@ -778,22 +807,25 @@
         <v>12.5</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,19 +833,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
@@ -825,22 +857,25 @@
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,19 +883,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.25</v>
@@ -872,22 +907,25 @@
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Коэффициент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внесение ингредиентов</t>
   </si>
   <si>
     <t xml:space="preserve">Маскарпоне "Unagrande", 80%, 0,25 кг, пл/с</t>
@@ -294,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,7 +372,9 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,19 +382,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.25</v>
@@ -401,25 +406,28 @@
         <v>12.5</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,19 +435,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.25</v>
@@ -451,25 +459,28 @@
         <v>12.5</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.5</v>
@@ -501,25 +512,28 @@
         <v>12.5</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,19 +541,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.25</v>
@@ -551,25 +565,28 @@
         <v>12.5</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.2</v>
@@ -604,25 +621,28 @@
         <v>12.5</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>1.25</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,19 +650,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.25</v>
@@ -654,25 +674,28 @@
         <v>12.5</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.25</v>
@@ -704,25 +727,28 @@
         <v>12.5</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,19 +756,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.5</v>
@@ -754,25 +780,28 @@
         <v>12.5</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,22 +809,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
@@ -807,25 +836,28 @@
         <v>12.5</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>1.25</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,19 +865,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
@@ -857,25 +889,28 @@
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,19 +918,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.25</v>
@@ -907,25 +942,28 @@
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>23</v>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>23</v>
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>23</v>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>23</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>23</v>
@@ -639,7 +639,7 @@
         <v>28</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>35</v>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>23</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>23</v>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>23</v>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>12.5</v>
+        <v>480</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>23</v>
@@ -854,7 +854,7 @@
         <v>28</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>35</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>23</v>
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>23</v>

--- a/app/data/params/mascarpone.xlsx
+++ b/app/data/params/mascarpone.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
